--- a/30_osmolarity/osmolarity_data.xlsx
+++ b/30_osmolarity/osmolarity_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,13 +11,142 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>1 Hr</t>
+  </si>
+  <si>
+    <t>2 Hrs</t>
+  </si>
+  <si>
+    <t>3 Hrs</t>
+  </si>
+  <si>
+    <t>Total Body Water (L)</t>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cumulative Water Loss In Sweat (L)</t>
+    </r>
+  </si>
+  <si>
+    <t>Plasma Volume (L)</t>
+  </si>
+  <si>
+    <t>Interstitial Volume (L)</t>
+  </si>
+  <si>
+    <t>Cell Water (L)</t>
+  </si>
+  <si>
+    <t>***The Cumulative water lost in sweat is not given in QCP, the numbers above are rates of evaporation given in mL/Min.</t>
+  </si>
+  <si>
+    <t>Extracellular Na+ Conc (mEq/L)</t>
+  </si>
+  <si>
+    <t>Extracellular Na+ Mass (mEq)</t>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cumulative Na+ Loss (mEq)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Cumulative NaCl Loss (G)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Volume (mL) Of Normal Saline Needed To Replace NaCl Loss</t>
+    </r>
+  </si>
+  <si>
+    <t>***Billy Bob is gaining sodium because he is set to intake sodium throughout the day which seems to counter act the loss of sodium in sweat.</t>
+  </si>
+  <si>
+    <t>Osmolarity, Plasma (mOsm/L)</t>
+  </si>
+  <si>
+    <t>Osmolarity, Renal Medulla (mOsm/L)</t>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Red Cell Volume,</t>
+    </r>
+  </si>
+  <si>
+    <t>Plasma (femtoL)</t>
+  </si>
+  <si>
+    <t>Medulla (femtoL)</t>
+  </si>
+  <si>
+    <t>Renal Blood Flow (mL/Min)</t>
+  </si>
+  <si>
+    <t>Vasa Recta Blood Outflow (mL/Min)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +154,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -42,12 +189,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +593,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>42.2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="128.25" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="45.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3038</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3008</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3002</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="E5" s="4">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45.75" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1"/>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4">
+        <v>145</v>
+      </c>
+      <c r="D10" s="4">
+        <v>146</v>
+      </c>
+      <c r="E10" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30.75" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2146</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2147</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2148</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="53.25" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="38.25" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>-5.8500000000000003E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-0.11700000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>-0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="83.25" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4">
+        <v>293</v>
+      </c>
+      <c r="C19" s="4">
+        <v>294</v>
+      </c>
+      <c r="D19" s="4">
+        <v>296</v>
+      </c>
+      <c r="E19" s="4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1542</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1519</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1571</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="37.5">
+      <c r="A21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9">
+        <v>89.8</v>
+      </c>
+      <c r="D21" s="9">
+        <v>89.19</v>
+      </c>
+      <c r="E21" s="9">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="37.5">
+      <c r="A23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C23" s="9">
+        <v>17.38</v>
+      </c>
+      <c r="D23" s="9">
+        <v>16.8</v>
+      </c>
+      <c r="E23" s="9">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1159</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1178</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1180</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45.75" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/30_osmolarity/osmolarity_data.xlsx
+++ b/30_osmolarity/osmolarity_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Control</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Vasa Recta Blood Outflow (mL/Min)</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>Hummod</t>
+  </si>
+  <si>
+    <t>HumMod</t>
   </si>
 </sst>
 </file>
@@ -269,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -291,6 +300,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,17 +607,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,8 +634,23 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="60.75" thickBot="1">
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="75" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -635,8 +666,15 @@
       <c r="E2" s="4">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="128.25" thickBot="1">
+      <c r="J2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="107.25" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -652,6 +690,13 @@
       <c r="E3" s="4">
         <v>2.4</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="45.75" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -669,8 +714,15 @@
       <c r="E4" s="4">
         <v>3003</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="60.75" thickBot="1">
+      <c r="J4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" ht="45.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -686,8 +738,15 @@
       <c r="E5" s="4">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="45.75" thickBot="1">
+      <c r="J5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="30.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -703,6 +762,13 @@
       <c r="E6" s="4">
         <v>27.2</v>
       </c>
+      <c r="J6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="15.75">
       <c r="A7" s="6" t="s">
@@ -724,7 +790,9 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,8 +805,23 @@
       <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="30.75" thickBot="1">
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="60.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -754,8 +837,15 @@
       <c r="E10" s="4">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="30.75" thickBot="1">
+      <c r="J10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="60.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -771,8 +861,15 @@
       <c r="E11" s="4">
         <v>2150</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="53.25" thickBot="1">
+      <c r="J11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="83.25" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -788,8 +885,15 @@
       <c r="E12" s="4">
         <v>-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="38.25" thickBot="1">
+      <c r="J12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="68.25" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -805,8 +909,15 @@
       <c r="E13" s="4">
         <v>-0.23400000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="83.25" thickBot="1">
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="158.25" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -822,6 +933,13 @@
       <c r="E14" s="4">
         <v>0</v>
       </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="6" t="s">
@@ -842,9 +960,11 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1"/>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A18" s="1"/>
+    <row r="17" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,8 +977,23 @@
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="45.75" thickBot="1">
+      <c r="J18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="45.75" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -874,8 +1009,15 @@
       <c r="E19" s="4">
         <v>297</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="45.75" thickBot="1">
+      <c r="J19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" ht="60.75" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -891,60 +1033,95 @@
       <c r="E20" s="4">
         <v>1692</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="37.5">
+      <c r="J20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" ht="52.5">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>90</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>89.8</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="10">
         <v>89.19</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="10">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1">
+      <c r="J21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+    </row>
+    <row r="22" spans="1:14" ht="30.75" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" ht="37.5">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="J22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" ht="52.5">
       <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>17.100000000000001</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>17.38</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="10">
         <v>16.8</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="10">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1">
+      <c r="J23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="1:14" ht="30.75" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.75" thickBot="1">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="J24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="60.75" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -960,8 +1137,15 @@
       <c r="E25" s="4">
         <v>1180</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="45.75" thickBot="1">
+      <c r="J25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="75.75" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -977,9 +1161,24 @@
       <c r="E26" s="4">
         <v>19</v>
       </c>
+      <c r="J26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
